--- a/Planning/Skills Audit/Team/Team A.xlsx
+++ b/Planning/Skills Audit/Team/Team A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Course TBC\project_management_2020\Planning\Skills Audit\Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199261BA-266F-4457-995B-CF35EF93E065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7CA061-E33D-4545-B6C4-D786DBFE537D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
-    <t>NO#</t>
-  </si>
-  <si>
     <t>Skills Audit</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>Version v1.0</t>
+  </si>
+  <si>
+    <t>No#</t>
   </si>
 </sst>
 </file>
@@ -476,11 +476,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,8 +510,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -522,6 +522,22 @@
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -546,7 +562,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color theme="0" tint="-0.499984740745262"/>
@@ -557,8 +573,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -572,26 +586,10 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -608,20 +606,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4964CB2-5EB1-485D-B17B-57F5B0B55872}" name="Table1" displayName="Table1" ref="A6:H23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4964CB2-5EB1-485D-B17B-57F5B0B55872}" name="Table1" displayName="Table1" ref="A6:H23" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A91A84CD-4809-4ECC-A16E-323F96B2EDBE}" name="NO#" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{A91A84CD-4809-4ECC-A16E-323F96B2EDBE}" name="No#" dataDxfId="9">
       <calculatedColumnFormula>ROW(A7)-6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{21F14378-A12A-4BC5-B1C6-F85B33447DCE}" name="Skill Required" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{F26FBB18-08A1-484B-A30C-5A59EDB2F700}" name="Skill Level ( 1- 5)" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{21F14378-A12A-4BC5-B1C6-F85B33447DCE}" name="Skill Required" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{F26FBB18-08A1-484B-A30C-5A59EDB2F700}" name="Skill Level ( 1- 5)" dataDxfId="7">
       <calculatedColumnFormula>17/5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0B81B4FA-965D-4757-9579-27FEE63118CB}" name="Traning Action" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{6A45A4BA-7800-439C-A421-DEB839E9E26C}" name="Training Objective" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{1A83C811-CA1A-4A6A-A603-A6F8934FAEF2}" name="Time (hrs)" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{DC9FA4F4-FBAC-4D30-B818-6E3D468FF70E}" name="Training Completion Deadline" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{C196AB2E-B6D6-41F3-911E-530D7014FB8A}" name="Traning for?" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{0B81B4FA-965D-4757-9579-27FEE63118CB}" name="Traning Action" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{6A45A4BA-7800-439C-A421-DEB839E9E26C}" name="Training Objective" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{1A83C811-CA1A-4A6A-A603-A6F8934FAEF2}" name="Time (hrs)" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{DC9FA4F4-FBAC-4D30-B818-6E3D468FF70E}" name="Training Completion Deadline" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{C196AB2E-B6D6-41F3-911E-530D7014FB8A}" name="Traning for?" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -954,43 +952,43 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="6.25" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -999,26 +997,26 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="21"/>
+      <c r="G3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1027,33 +1025,33 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="23" t="s">
         <v>6</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1062,16 +1060,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>3.5</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="F7" s="5">
         <v>10</v>
@@ -1080,25 +1078,25 @@
         <v>43905</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <f t="shared" ref="A8:A23" si="0">ROW(A8)-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5">
         <v>3.5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="5">
         <v>5</v>
@@ -1107,25 +1105,25 @@
         <v>43905</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5">
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="5">
         <v>5</v>
@@ -1134,25 +1132,25 @@
         <v>43903</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="5">
         <v>5</v>
@@ -1161,25 +1159,25 @@
         <v>43902</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5">
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="5">
         <v>6</v>
@@ -1188,25 +1186,25 @@
         <v>43902</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5">
         <v>2.5</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="F12" s="5">
         <v>7</v>
@@ -1215,25 +1213,25 @@
         <v>43900</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5">
         <v>3.5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="5">
         <v>5</v>
@@ -1242,25 +1240,25 @@
         <v>43900</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5">
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="5">
         <v>6</v>
@@ -1269,25 +1267,25 @@
         <v>43901</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5">
         <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="5">
         <v>6</v>
@@ -1296,7 +1294,7 @@
         <v>43890</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1305,16 +1303,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="5">
         <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="5">
         <v>8</v>
@@ -1323,88 +1321,88 @@
         <v>43903</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="5">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="11">
         <v>43903</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5">
         <v>3.5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="1">
         <v>6</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="11">
         <v>43902</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="1">
         <v>4</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="11">
         <v>43900</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="63" x14ac:dyDescent="0.25">
@@ -1413,106 +1411,106 @@
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="5">
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="1">
         <v>6</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="11">
         <v>43892</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="11">
         <v>43891</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="1">
         <v>2</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="11">
         <v>43891</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="5">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="11">
         <v>43903</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
